--- a/Documentation/AgileReleaseSummary.xlsx
+++ b/Documentation/AgileReleaseSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Team:</t>
   </si>
@@ -44,21 +44,9 @@
     <t>Feature / Requirement</t>
   </si>
   <si>
-    <t>Project Vision statement</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
-    <t>Work Effort in Person Days (PD)</t>
-  </si>
-  <si>
-    <t>Modify the calculation of orders total</t>
-  </si>
-  <si>
-    <t>Add a new Invoice</t>
-  </si>
-  <si>
     <t>Need ability to capture customer contact</t>
   </si>
   <si>
@@ -71,15 +59,6 @@
     <t>Iteration #3</t>
   </si>
   <si>
-    <t>Given: 1 PD = 4 hours</t>
-  </si>
-  <si>
-    <t>Target: 135 to 150 PD for team of 3</t>
-  </si>
-  <si>
-    <t>Estimate: 3 PD per week = 45 PD per member; 135 PD for team of 3</t>
-  </si>
-  <si>
     <t>GREY CUBE DEVELOPMENT</t>
   </si>
   <si>
@@ -99,6 +78,63 @@
   </si>
   <si>
     <t>Due: Dec 7, 2018</t>
+  </si>
+  <si>
+    <t>Work Effort in Hours</t>
+  </si>
+  <si>
+    <t>Use Case Diagrams</t>
+  </si>
+  <si>
+    <t>Use Case Descriptions with Activity Diagrams</t>
+  </si>
+  <si>
+    <t>Analysis Level Class Diagram</t>
+  </si>
+  <si>
+    <t>System Sequence Diagrams</t>
+  </si>
+  <si>
+    <t>Design Level Class Diagram</t>
+  </si>
+  <si>
+    <t>Design Level Sequence Diagrams</t>
+  </si>
+  <si>
+    <t>Navigation Diagrams</t>
+  </si>
+  <si>
+    <t>User Interface Prototype</t>
+  </si>
+  <si>
+    <t>Report Designs</t>
+  </si>
+  <si>
+    <t>Entity Relationship Diagram</t>
+  </si>
+  <si>
+    <t>Data Dictionary</t>
+  </si>
+  <si>
+    <t>Unit Test Plan* (not required)</t>
+  </si>
+  <si>
+    <t>Source Code</t>
+  </si>
+  <si>
+    <t>Agile Backlog Report</t>
+  </si>
+  <si>
+    <t>Agile Summary Report</t>
+  </si>
+  <si>
+    <t>Team Charter</t>
+  </si>
+  <si>
+    <t>Project Charter</t>
+  </si>
+  <si>
+    <t>Project Plan</t>
   </si>
 </sst>
 </file>
@@ -195,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -217,6 +253,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,23 +570,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="16.85546875" customWidth="1"/>
+    <col min="3" max="7" width="16.85546875" style="15" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -546,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,10 +614,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
@@ -578,19 +625,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -602,139 +649,342 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
+        <v>35</v>
+      </c>
+      <c r="C10" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="14">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>10</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>11</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>12</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>13</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>14</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>15</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>16</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6">
+        <v>20</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>17</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <v>3</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>18</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>107</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>109</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="11">
-        <f>SUM(C10:C23)</f>
-        <v>4</v>
-      </c>
-      <c r="D24" s="11">
-        <f>SUM(D10:D23)</f>
-        <v>5</v>
-      </c>
-      <c r="E24" s="11">
-        <f>SUM(E10:E23)</f>
-        <v>4</v>
-      </c>
-      <c r="F24" s="11">
-        <f>SUM(F10:F23)</f>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="17">
+        <f>SUM(C10:C12)</f>
+        <v>14</v>
+      </c>
+      <c r="D37" s="17">
+        <f>SUM(D14:D28)</f>
+        <v>58</v>
+      </c>
+      <c r="E37" s="17">
+        <f>SUM(E10:E36)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="11">
-        <f>SUM(G10:G23)</f>
+      <c r="F37" s="17">
+        <f>SUM(F10:F36)</f>
         <v>0</v>
       </c>
-      <c r="H24" s="12">
-        <f>SUM(C24:G24)</f>
-        <v>13</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I26" t="s">
-        <v>18</v>
+      <c r="G37" s="17">
+        <f>SUM(G10:G36)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="12">
+        <f>SUM(C37:G37)</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/AgileReleaseSummary.xlsx
+++ b/Documentation/AgileReleaseSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Team:</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>Need ability to capture customer contact</t>
-  </si>
-  <si>
-    <t>Create report of invoices generated daily</t>
   </si>
   <si>
     <t>Iteration #2</t>
@@ -166,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,12 +182,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,8 +237,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,9 +250,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,22 +561,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="7" width="16.85546875" style="15" customWidth="1"/>
+    <col min="3" max="7" width="16.85546875" style="14" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -596,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,30 +601,30 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,47 +636,47 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C11" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="14">
-        <v>4</v>
-      </c>
-    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
@@ -700,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6">
@@ -712,277 +700,451 @@
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
         <v>1.5</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>8</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>9</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
         <v>4</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>12</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>2.5</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>14</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>15</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>16</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6">
         <v>20</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>17</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
         <v>3</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>18</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
         <v>2</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="14"/>
       <c r="B28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="8">
+        <v>19</v>
+      </c>
       <c r="B29" s="9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>20</v>
+      </c>
       <c r="B30" s="9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>21</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>22</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>23</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>24</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="17">
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>25</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>26</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>27</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>29</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>30</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>31</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>32</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>33</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>34</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="15">
         <f>SUM(C9:C11)</f>
         <v>14</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D48" s="15">
         <f>SUM(D13:D27)</f>
         <v>58</v>
       </c>
-      <c r="E36" s="17">
-        <f>SUM(E9:E35)</f>
+      <c r="E48" s="15">
+        <f>SUM(E9:E47)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="17">
-        <f>SUM(F9:F35)</f>
+      <c r="F48" s="15">
+        <f>SUM(F9:F47)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="17">
-        <f>SUM(G9:G35)</f>
+      <c r="G48" s="15">
+        <f>SUM(G9:G47)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="12">
-        <f>SUM(C36:G36)</f>
+      <c r="H48" s="11">
+        <f>SUM(C48:G48)</f>
         <v>72</v>
       </c>
     </row>

--- a/Documentation/AgileReleaseSummary.xlsx
+++ b/Documentation/AgileReleaseSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Team:</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Project Plan</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +564,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +672,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -725,7 +734,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>8</v>
       </c>
@@ -740,7 +749,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>9</v>
       </c>
@@ -755,7 +764,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>10</v>
       </c>
@@ -770,7 +779,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>11</v>
       </c>
@@ -785,7 +794,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>12</v>
       </c>
@@ -800,7 +809,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>13</v>
       </c>
@@ -815,7 +824,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>14</v>
       </c>
@@ -830,7 +839,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>15</v>
       </c>
@@ -845,7 +854,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>16</v>
       </c>
@@ -860,7 +869,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>17</v>
       </c>
@@ -875,7 +884,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>18</v>
       </c>
@@ -890,13 +899,16 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>19</v>
       </c>
@@ -906,8 +918,11 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>20</v>
       </c>
@@ -919,8 +934,11 @@
       <c r="E30" s="8"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>21</v>
       </c>
@@ -932,8 +950,11 @@
       <c r="E31" s="8"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>22</v>
       </c>
@@ -945,6 +966,9 @@
       <c r="E32" s="8"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
+      <c r="H32" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
@@ -958,6 +982,9 @@
       <c r="E33" s="8"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
+      <c r="H33" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
@@ -971,6 +998,9 @@
       <c r="E34" s="8"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
@@ -984,6 +1014,9 @@
       <c r="E35" s="8"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -997,6 +1030,9 @@
       <c r="E36" s="8"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
@@ -1010,6 +1046,9 @@
       <c r="E37" s="8"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
+      <c r="H37" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
@@ -1023,6 +1062,9 @@
       <c r="E38" s="8"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
+      <c r="H38" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -1033,9 +1075,14 @@
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8">
+        <v>1.5</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
+      <c r="H39" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
@@ -1046,9 +1093,14 @@
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8">
+        <v>5</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
+      <c r="H40" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
@@ -1060,6 +1112,9 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
@@ -1071,6 +1126,9 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
@@ -1083,69 +1141,61 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>34</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="H43" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="A46" s="14"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="10" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C47" s="15">
         <f>SUM(C9:C11)</f>
         <v>14</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D47" s="15">
         <f>SUM(D13:D27)</f>
         <v>58</v>
       </c>
-      <c r="E48" s="15">
-        <f>SUM(E9:E47)</f>
+      <c r="E47" s="15">
+        <f>SUM(E29:E43)</f>
+        <v>6.5</v>
+      </c>
+      <c r="F47" s="15">
+        <f>SUM(F9:F46)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="15">
-        <f>SUM(F9:F47)</f>
+      <c r="G47" s="15">
+        <f>SUM(G9:G46)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="15">
-        <f>SUM(G9:G47)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="11">
-        <f>SUM(C48:G48)</f>
-        <v>72</v>
+      <c r="H47" s="11">
+        <f>SUM(C47:G47)</f>
+        <v>78.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/AgileReleaseSummary.xlsx
+++ b/Documentation/AgileReleaseSummary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Team:</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Project Plan</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -566,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,9 +914,8 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="H29" t="s">
-        <v>36</v>
+      <c r="E29" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -931,12 +927,12 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="8">
+        <v>6</v>
+      </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="17">
-        <v>0.5</v>
-      </c>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
@@ -947,12 +943,11 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="E31" s="8">
+        <v>1.5</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
@@ -963,12 +958,11 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="8">
+        <v>2.5</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
@@ -979,12 +973,11 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8">
+        <v>2</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
@@ -995,12 +988,11 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
@@ -1011,12 +1003,12 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8">
+        <v>2</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
-      <c r="H35" s="17">
-        <v>0</v>
-      </c>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -1027,12 +1019,12 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8">
+        <v>4</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="17">
-        <v>0</v>
-      </c>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
@@ -1043,12 +1035,11 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8">
+        <v>3</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
-      <c r="H37" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
@@ -1059,12 +1050,11 @@
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="8">
+        <v>2</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
-      <c r="H38" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -1076,13 +1066,10 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
@@ -1098,9 +1085,6 @@
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
@@ -1111,9 +1095,8 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="H41" t="s">
-        <v>36</v>
+      <c r="E41" s="8">
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1125,9 +1108,8 @@
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="H42" t="s">
-        <v>36</v>
+      <c r="E42" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,11 +1121,11 @@
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8">
+        <v>3</v>
+      </c>
       <c r="F43" s="16"/>
-      <c r="H43" s="17">
-        <v>0.5</v>
-      </c>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
@@ -1183,7 +1165,7 @@
       </c>
       <c r="E47" s="15">
         <f>SUM(E29:E43)</f>
-        <v>6.5</v>
+        <v>73</v>
       </c>
       <c r="F47" s="15">
         <f>SUM(F9:F46)</f>
@@ -1195,7 +1177,7 @@
       </c>
       <c r="H47" s="11">
         <f>SUM(C47:G47)</f>
-        <v>78.5</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
